--- a/Output/Logit_models_weight.xlsx
+++ b/Output/Logit_models_weight.xlsx
@@ -599,7 +599,7 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>qaut2</t>
+          <t>qautQ2</t>
         </is>
       </c>
       <c r="B11">
@@ -621,7 +621,7 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>qaut3</t>
+          <t>qautQ3</t>
         </is>
       </c>
       <c r="B12">
@@ -643,7 +643,7 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>qaut4</t>
+          <t>qautQ4</t>
         </is>
       </c>
       <c r="B13">
@@ -665,7 +665,7 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>qaut5</t>
+          <t>qautQ5 Highest</t>
         </is>
       </c>
       <c r="B14">
@@ -731,7 +731,7 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>reg2</t>
+          <t>reg2 Región de Antofagasta</t>
         </is>
       </c>
       <c r="B17">
@@ -753,7 +753,7 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>reg3</t>
+          <t>reg3 Región de Atacama</t>
         </is>
       </c>
       <c r="B18">
@@ -775,7 +775,7 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>reg4</t>
+          <t>reg4 Región de Coquimbo</t>
         </is>
       </c>
       <c r="B19">
@@ -797,7 +797,7 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>reg5</t>
+          <t>reg5 Región de Valparaíso</t>
         </is>
       </c>
       <c r="B20">
@@ -819,7 +819,7 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>reg6</t>
+          <t>reg6 Región del Libertador Gral. Bernardo O'Higgins</t>
         </is>
       </c>
       <c r="B21">
@@ -841,7 +841,7 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>reg7</t>
+          <t>reg7 Región del Maule</t>
         </is>
       </c>
       <c r="B22">
@@ -863,7 +863,7 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>reg8</t>
+          <t>reg8 Región del Biobío</t>
         </is>
       </c>
       <c r="B23">
@@ -885,7 +885,7 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>reg9</t>
+          <t>reg9 Región de La Araucanía</t>
         </is>
       </c>
       <c r="B24">
@@ -907,7 +907,7 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>reg10</t>
+          <t>reg10 Región de Los Lagos</t>
         </is>
       </c>
       <c r="B25">
@@ -929,7 +929,7 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>reg11</t>
+          <t>reg11 Región de Aysén del Gral. Carlos Ibáñez del Campo</t>
         </is>
       </c>
       <c r="B26">
@@ -951,7 +951,7 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>reg12</t>
+          <t>reg12 Región de Magallanes y de la Antártica Chilena</t>
         </is>
       </c>
       <c r="B27">
@@ -973,7 +973,7 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>reg13</t>
+          <t>reg13 Región Metropolitana de Santiago</t>
         </is>
       </c>
       <c r="B28">
@@ -995,7 +995,7 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>reg14</t>
+          <t>reg14 Región de Los Ríos</t>
         </is>
       </c>
       <c r="B29">
@@ -1017,7 +1017,7 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>reg15</t>
+          <t>reg15 Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="B30">
@@ -1039,7 +1039,7 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>reg16</t>
+          <t>reg16 Región de Ñuble</t>
         </is>
       </c>
       <c r="B31">
@@ -1304,7 +1304,7 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>qaut2</t>
+          <t>qautQ2</t>
         </is>
       </c>
       <c r="B11">
@@ -1326,7 +1326,7 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>qaut3</t>
+          <t>qautQ3</t>
         </is>
       </c>
       <c r="B12">
@@ -1348,7 +1348,7 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>qaut4</t>
+          <t>qautQ4</t>
         </is>
       </c>
       <c r="B13">
@@ -1370,7 +1370,7 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>qaut5</t>
+          <t>qautQ5 Highest</t>
         </is>
       </c>
       <c r="B14">
@@ -1436,7 +1436,7 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>reg2</t>
+          <t>reg2 Región de Antofagasta</t>
         </is>
       </c>
       <c r="B17">
@@ -1458,7 +1458,7 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>reg3</t>
+          <t>reg3 Región de Atacama</t>
         </is>
       </c>
       <c r="B18">
@@ -1480,7 +1480,7 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>reg4</t>
+          <t>reg4 Región de Coquimbo</t>
         </is>
       </c>
       <c r="B19">
@@ -1502,7 +1502,7 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>reg5</t>
+          <t>reg5 Región de Valparaíso</t>
         </is>
       </c>
       <c r="B20">
@@ -1524,7 +1524,7 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>reg6</t>
+          <t>reg6 Región del Libertador Gral. Bernardo O'Higgins</t>
         </is>
       </c>
       <c r="B21">
@@ -1546,7 +1546,7 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>reg7</t>
+          <t>reg7 Región del Maule</t>
         </is>
       </c>
       <c r="B22">
@@ -1568,7 +1568,7 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>reg8</t>
+          <t>reg8 Región del Biobío</t>
         </is>
       </c>
       <c r="B23">
@@ -1590,7 +1590,7 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>reg9</t>
+          <t>reg9 Región de La Araucanía</t>
         </is>
       </c>
       <c r="B24">
@@ -1612,7 +1612,7 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>reg10</t>
+          <t>reg10 Región de Los Lagos</t>
         </is>
       </c>
       <c r="B25">
@@ -1634,7 +1634,7 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>reg11</t>
+          <t>reg11 Región de Aysén del Gral. Carlos Ibáñez del Campo</t>
         </is>
       </c>
       <c r="B26">
@@ -1656,7 +1656,7 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>reg12</t>
+          <t>reg12 Región de Magallanes y de la Antártica Chilena</t>
         </is>
       </c>
       <c r="B27">
@@ -1678,7 +1678,7 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>reg13</t>
+          <t>reg13 Región Metropolitana de Santiago</t>
         </is>
       </c>
       <c r="B28">
@@ -1700,7 +1700,7 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>reg14</t>
+          <t>reg14 Región de Los Ríos</t>
         </is>
       </c>
       <c r="B29">
@@ -1722,7 +1722,7 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>reg15</t>
+          <t>reg15 Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="B30">
@@ -1744,7 +1744,7 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>reg16</t>
+          <t>reg16 Región de Ñuble</t>
         </is>
       </c>
       <c r="B31">
@@ -2009,7 +2009,7 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>qaut2</t>
+          <t>qautQ2</t>
         </is>
       </c>
       <c r="B11">
@@ -2031,7 +2031,7 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>qaut3</t>
+          <t>qautQ3</t>
         </is>
       </c>
       <c r="B12">
@@ -2053,7 +2053,7 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>qaut4</t>
+          <t>qautQ4</t>
         </is>
       </c>
       <c r="B13">
@@ -2075,7 +2075,7 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>qaut5</t>
+          <t>qautQ5 Highest</t>
         </is>
       </c>
       <c r="B14">
@@ -2141,7 +2141,7 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>reg2</t>
+          <t>reg2 Región de Antofagasta</t>
         </is>
       </c>
       <c r="B17">
@@ -2163,7 +2163,7 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>reg3</t>
+          <t>reg3 Región de Atacama</t>
         </is>
       </c>
       <c r="B18">
@@ -2185,7 +2185,7 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>reg4</t>
+          <t>reg4 Región de Coquimbo</t>
         </is>
       </c>
       <c r="B19">
@@ -2207,7 +2207,7 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>reg5</t>
+          <t>reg5 Región de Valparaíso</t>
         </is>
       </c>
       <c r="B20">
@@ -2229,7 +2229,7 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>reg6</t>
+          <t>reg6 Región del Libertador Gral. Bernardo O'Higgins</t>
         </is>
       </c>
       <c r="B21">
@@ -2251,7 +2251,7 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>reg7</t>
+          <t>reg7 Región del Maule</t>
         </is>
       </c>
       <c r="B22">
@@ -2273,7 +2273,7 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>reg8</t>
+          <t>reg8 Región del Biobío</t>
         </is>
       </c>
       <c r="B23">
@@ -2295,7 +2295,7 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>reg9</t>
+          <t>reg9 Región de La Araucanía</t>
         </is>
       </c>
       <c r="B24">
@@ -2317,7 +2317,7 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>reg10</t>
+          <t>reg10 Región de Los Lagos</t>
         </is>
       </c>
       <c r="B25">
@@ -2339,7 +2339,7 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>reg11</t>
+          <t>reg11 Región de Aysén del Gral. Carlos Ibáñez del Campo</t>
         </is>
       </c>
       <c r="B26">
@@ -2361,7 +2361,7 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>reg12</t>
+          <t>reg12 Región de Magallanes y de la Antártica Chilena</t>
         </is>
       </c>
       <c r="B27">
@@ -2383,7 +2383,7 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>reg13</t>
+          <t>reg13 Región Metropolitana de Santiago</t>
         </is>
       </c>
       <c r="B28">
@@ -2405,7 +2405,7 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>reg14</t>
+          <t>reg14 Región de Los Ríos</t>
         </is>
       </c>
       <c r="B29">
@@ -2427,7 +2427,7 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>reg15</t>
+          <t>reg15 Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="B30">
@@ -2449,7 +2449,7 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>reg16</t>
+          <t>reg16 Región de Ñuble</t>
         </is>
       </c>
       <c r="B31">
@@ -2758,7 +2758,7 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>qaut2</t>
+          <t>qautQ2</t>
         </is>
       </c>
       <c r="B13">
@@ -2780,7 +2780,7 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>qaut3</t>
+          <t>qautQ3</t>
         </is>
       </c>
       <c r="B14">
@@ -2802,7 +2802,7 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>qaut4</t>
+          <t>qautQ4</t>
         </is>
       </c>
       <c r="B15">
@@ -2824,7 +2824,7 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>qaut5</t>
+          <t>qautQ5 Highest</t>
         </is>
       </c>
       <c r="B16">
@@ -2890,7 +2890,7 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>reg2</t>
+          <t>reg2 Región de Antofagasta</t>
         </is>
       </c>
       <c r="B19">
@@ -2912,7 +2912,7 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>reg3</t>
+          <t>reg3 Región de Atacama</t>
         </is>
       </c>
       <c r="B20">
@@ -2934,7 +2934,7 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>reg4</t>
+          <t>reg4 Región de Coquimbo</t>
         </is>
       </c>
       <c r="B21">
@@ -2956,7 +2956,7 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>reg5</t>
+          <t>reg5 Región de Valparaíso</t>
         </is>
       </c>
       <c r="B22">
@@ -2978,7 +2978,7 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>reg6</t>
+          <t>reg6 Región del Libertador Gral. Bernardo O'Higgins</t>
         </is>
       </c>
       <c r="B23">
@@ -3000,7 +3000,7 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>reg7</t>
+          <t>reg7 Región del Maule</t>
         </is>
       </c>
       <c r="B24">
@@ -3022,7 +3022,7 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>reg8</t>
+          <t>reg8 Región del Biobío</t>
         </is>
       </c>
       <c r="B25">
@@ -3044,7 +3044,7 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>reg9</t>
+          <t>reg9 Región de La Araucanía</t>
         </is>
       </c>
       <c r="B26">
@@ -3066,7 +3066,7 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>reg10</t>
+          <t>reg10 Región de Los Lagos</t>
         </is>
       </c>
       <c r="B27">
@@ -3088,7 +3088,7 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>reg11</t>
+          <t>reg11 Región de Aysén del Gral. Carlos Ibáñez del Campo</t>
         </is>
       </c>
       <c r="B28">
@@ -3110,7 +3110,7 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>reg12</t>
+          <t>reg12 Región de Magallanes y de la Antártica Chilena</t>
         </is>
       </c>
       <c r="B29">
@@ -3132,7 +3132,7 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>reg13</t>
+          <t>reg13 Región Metropolitana de Santiago</t>
         </is>
       </c>
       <c r="B30">
@@ -3154,7 +3154,7 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>reg14</t>
+          <t>reg14 Región de Los Ríos</t>
         </is>
       </c>
       <c r="B31">
@@ -3176,7 +3176,7 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>reg15</t>
+          <t>reg15 Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="B32">
@@ -3198,7 +3198,7 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>reg16</t>
+          <t>reg16 Región de Ñuble</t>
         </is>
       </c>
       <c r="B33">
@@ -3463,7 +3463,7 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>qaut2</t>
+          <t>qautQ2</t>
         </is>
       </c>
       <c r="B11">
@@ -3485,7 +3485,7 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>qaut3</t>
+          <t>qautQ3</t>
         </is>
       </c>
       <c r="B12">
@@ -3507,7 +3507,7 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>qaut4</t>
+          <t>qautQ4</t>
         </is>
       </c>
       <c r="B13">
@@ -3529,7 +3529,7 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>qaut5</t>
+          <t>qautQ5 Highest</t>
         </is>
       </c>
       <c r="B14">
@@ -3595,7 +3595,7 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>reg2</t>
+          <t>reg2 Región de Antofagasta</t>
         </is>
       </c>
       <c r="B17">
@@ -3617,7 +3617,7 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>reg3</t>
+          <t>reg3 Región de Atacama</t>
         </is>
       </c>
       <c r="B18">
@@ -3639,7 +3639,7 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>reg4</t>
+          <t>reg4 Región de Coquimbo</t>
         </is>
       </c>
       <c r="B19">
@@ -3661,7 +3661,7 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>reg5</t>
+          <t>reg5 Región de Valparaíso</t>
         </is>
       </c>
       <c r="B20">
@@ -3683,7 +3683,7 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>reg6</t>
+          <t>reg6 Región del Libertador Gral. Bernardo O'Higgins</t>
         </is>
       </c>
       <c r="B21">
@@ -3705,7 +3705,7 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>reg7</t>
+          <t>reg7 Región del Maule</t>
         </is>
       </c>
       <c r="B22">
@@ -3727,7 +3727,7 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>reg8</t>
+          <t>reg8 Región del Biobío</t>
         </is>
       </c>
       <c r="B23">
@@ -3749,7 +3749,7 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>reg9</t>
+          <t>reg9 Región de La Araucanía</t>
         </is>
       </c>
       <c r="B24">
@@ -3771,7 +3771,7 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>reg10</t>
+          <t>reg10 Región de Los Lagos</t>
         </is>
       </c>
       <c r="B25">
@@ -3793,7 +3793,7 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>reg11</t>
+          <t>reg11 Región de Aysén del Gral. Carlos Ibáñez del Campo</t>
         </is>
       </c>
       <c r="B26">
@@ -3815,7 +3815,7 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>reg12</t>
+          <t>reg12 Región de Magallanes y de la Antártica Chilena</t>
         </is>
       </c>
       <c r="B27">
@@ -3837,7 +3837,7 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>reg13</t>
+          <t>reg13 Región Metropolitana de Santiago</t>
         </is>
       </c>
       <c r="B28">
@@ -3859,7 +3859,7 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>reg14</t>
+          <t>reg14 Región de Los Ríos</t>
         </is>
       </c>
       <c r="B29">
@@ -3881,7 +3881,7 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>reg15</t>
+          <t>reg15 Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="B30">
@@ -3903,7 +3903,7 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>reg16</t>
+          <t>reg16 Región de Ñuble</t>
         </is>
       </c>
       <c r="B31">
@@ -4168,7 +4168,7 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>qaut2</t>
+          <t>qautQ2</t>
         </is>
       </c>
       <c r="B11">
@@ -4190,7 +4190,7 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>qaut3</t>
+          <t>qautQ3</t>
         </is>
       </c>
       <c r="B12">
@@ -4212,7 +4212,7 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>qaut4</t>
+          <t>qautQ4</t>
         </is>
       </c>
       <c r="B13">
@@ -4234,7 +4234,7 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>qaut5</t>
+          <t>qautQ5 Highest</t>
         </is>
       </c>
       <c r="B14">
@@ -4300,7 +4300,7 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>reg2</t>
+          <t>reg2 Región de Antofagasta</t>
         </is>
       </c>
       <c r="B17">
@@ -4322,7 +4322,7 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>reg3</t>
+          <t>reg3 Región de Atacama</t>
         </is>
       </c>
       <c r="B18">
@@ -4344,7 +4344,7 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>reg4</t>
+          <t>reg4 Región de Coquimbo</t>
         </is>
       </c>
       <c r="B19">
@@ -4366,7 +4366,7 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>reg5</t>
+          <t>reg5 Región de Valparaíso</t>
         </is>
       </c>
       <c r="B20">
@@ -4388,7 +4388,7 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>reg6</t>
+          <t>reg6 Región del Libertador Gral. Bernardo O'Higgins</t>
         </is>
       </c>
       <c r="B21">
@@ -4410,7 +4410,7 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>reg7</t>
+          <t>reg7 Región del Maule</t>
         </is>
       </c>
       <c r="B22">
@@ -4432,7 +4432,7 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>reg8</t>
+          <t>reg8 Región del Biobío</t>
         </is>
       </c>
       <c r="B23">
@@ -4454,7 +4454,7 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>reg9</t>
+          <t>reg9 Región de La Araucanía</t>
         </is>
       </c>
       <c r="B24">
@@ -4476,7 +4476,7 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>reg10</t>
+          <t>reg10 Región de Los Lagos</t>
         </is>
       </c>
       <c r="B25">
@@ -4498,7 +4498,7 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>reg11</t>
+          <t>reg11 Región de Aysén del Gral. Carlos Ibáñez del Campo</t>
         </is>
       </c>
       <c r="B26">
@@ -4520,7 +4520,7 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>reg12</t>
+          <t>reg12 Región de Magallanes y de la Antártica Chilena</t>
         </is>
       </c>
       <c r="B27">
@@ -4542,7 +4542,7 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>reg13</t>
+          <t>reg13 Región Metropolitana de Santiago</t>
         </is>
       </c>
       <c r="B28">
@@ -4564,7 +4564,7 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>reg14</t>
+          <t>reg14 Región de Los Ríos</t>
         </is>
       </c>
       <c r="B29">
@@ -4586,7 +4586,7 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>reg15</t>
+          <t>reg15 Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="B30">
@@ -4608,7 +4608,7 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>reg16</t>
+          <t>reg16 Región de Ñuble</t>
         </is>
       </c>
       <c r="B31">
@@ -4873,7 +4873,7 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>qaut2</t>
+          <t>qautQ2</t>
         </is>
       </c>
       <c r="B11">
@@ -4895,7 +4895,7 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>qaut3</t>
+          <t>qautQ3</t>
         </is>
       </c>
       <c r="B12">
@@ -4917,7 +4917,7 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>qaut4</t>
+          <t>qautQ4</t>
         </is>
       </c>
       <c r="B13">
@@ -4939,7 +4939,7 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>qaut5</t>
+          <t>qautQ5 Highest</t>
         </is>
       </c>
       <c r="B14">
@@ -5005,7 +5005,7 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>reg2</t>
+          <t>reg2 Región de Antofagasta</t>
         </is>
       </c>
       <c r="B17">
@@ -5027,7 +5027,7 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>reg3</t>
+          <t>reg3 Región de Atacama</t>
         </is>
       </c>
       <c r="B18">
@@ -5049,7 +5049,7 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>reg4</t>
+          <t>reg4 Región de Coquimbo</t>
         </is>
       </c>
       <c r="B19">
@@ -5071,7 +5071,7 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>reg5</t>
+          <t>reg5 Región de Valparaíso</t>
         </is>
       </c>
       <c r="B20">
@@ -5093,7 +5093,7 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>reg6</t>
+          <t>reg6 Región del Libertador Gral. Bernardo O'Higgins</t>
         </is>
       </c>
       <c r="B21">
@@ -5115,7 +5115,7 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>reg7</t>
+          <t>reg7 Región del Maule</t>
         </is>
       </c>
       <c r="B22">
@@ -5137,7 +5137,7 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>reg8</t>
+          <t>reg8 Región del Biobío</t>
         </is>
       </c>
       <c r="B23">
@@ -5159,7 +5159,7 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>reg9</t>
+          <t>reg9 Región de La Araucanía</t>
         </is>
       </c>
       <c r="B24">
@@ -5181,7 +5181,7 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>reg10</t>
+          <t>reg10 Región de Los Lagos</t>
         </is>
       </c>
       <c r="B25">
@@ -5203,7 +5203,7 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>reg11</t>
+          <t>reg11 Región de Aysén del Gral. Carlos Ibáñez del Campo</t>
         </is>
       </c>
       <c r="B26">
@@ -5225,7 +5225,7 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>reg12</t>
+          <t>reg12 Región de Magallanes y de la Antártica Chilena</t>
         </is>
       </c>
       <c r="B27">
@@ -5247,7 +5247,7 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>reg13</t>
+          <t>reg13 Región Metropolitana de Santiago</t>
         </is>
       </c>
       <c r="B28">
@@ -5269,7 +5269,7 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>reg14</t>
+          <t>reg14 Región de Los Ríos</t>
         </is>
       </c>
       <c r="B29">
@@ -5291,7 +5291,7 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>reg15</t>
+          <t>reg15 Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="B30">
@@ -5313,7 +5313,7 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>reg16</t>
+          <t>reg16 Región de Ñuble</t>
         </is>
       </c>
       <c r="B31">
@@ -5578,7 +5578,7 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>qaut2</t>
+          <t>qautQ2</t>
         </is>
       </c>
       <c r="B11">
@@ -5600,7 +5600,7 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>qaut3</t>
+          <t>qautQ3</t>
         </is>
       </c>
       <c r="B12">
@@ -5622,7 +5622,7 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>qaut4</t>
+          <t>qautQ4</t>
         </is>
       </c>
       <c r="B13">
@@ -5644,7 +5644,7 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>qaut5</t>
+          <t>qautQ5 Highest</t>
         </is>
       </c>
       <c r="B14">
@@ -5710,7 +5710,7 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>reg2</t>
+          <t>reg2 Región de Antofagasta</t>
         </is>
       </c>
       <c r="B17">
@@ -5732,7 +5732,7 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>reg3</t>
+          <t>reg3 Región de Atacama</t>
         </is>
       </c>
       <c r="B18">
@@ -5754,7 +5754,7 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>reg4</t>
+          <t>reg4 Región de Coquimbo</t>
         </is>
       </c>
       <c r="B19">
@@ -5776,7 +5776,7 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>reg5</t>
+          <t>reg5 Región de Valparaíso</t>
         </is>
       </c>
       <c r="B20">
@@ -5798,7 +5798,7 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>reg6</t>
+          <t>reg6 Región del Libertador Gral. Bernardo O'Higgins</t>
         </is>
       </c>
       <c r="B21">
@@ -5820,7 +5820,7 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>reg7</t>
+          <t>reg7 Región del Maule</t>
         </is>
       </c>
       <c r="B22">
@@ -5842,7 +5842,7 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>reg8</t>
+          <t>reg8 Región del Biobío</t>
         </is>
       </c>
       <c r="B23">
@@ -5864,7 +5864,7 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>reg9</t>
+          <t>reg9 Región de La Araucanía</t>
         </is>
       </c>
       <c r="B24">
@@ -5886,7 +5886,7 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>reg10</t>
+          <t>reg10 Región de Los Lagos</t>
         </is>
       </c>
       <c r="B25">
@@ -5908,7 +5908,7 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>reg11</t>
+          <t>reg11 Región de Aysén del Gral. Carlos Ibáñez del Campo</t>
         </is>
       </c>
       <c r="B26">
@@ -5930,7 +5930,7 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>reg12</t>
+          <t>reg12 Región de Magallanes y de la Antártica Chilena</t>
         </is>
       </c>
       <c r="B27">
@@ -5952,7 +5952,7 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>reg13</t>
+          <t>reg13 Región Metropolitana de Santiago</t>
         </is>
       </c>
       <c r="B28">
@@ -5974,7 +5974,7 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>reg14</t>
+          <t>reg14 Región de Los Ríos</t>
         </is>
       </c>
       <c r="B29">
@@ -5996,7 +5996,7 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>reg15</t>
+          <t>reg15 Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="B30">
@@ -6018,7 +6018,7 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>reg16</t>
+          <t>reg16 Región de Ñuble</t>
         </is>
       </c>
       <c r="B31">
@@ -6327,7 +6327,7 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>qaut2</t>
+          <t>qautQ2</t>
         </is>
       </c>
       <c r="B13">
@@ -6349,7 +6349,7 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>qaut3</t>
+          <t>qautQ3</t>
         </is>
       </c>
       <c r="B14">
@@ -6371,7 +6371,7 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>qaut4</t>
+          <t>qautQ4</t>
         </is>
       </c>
       <c r="B15">
@@ -6393,7 +6393,7 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>qaut5</t>
+          <t>qautQ5 Highest</t>
         </is>
       </c>
       <c r="B16">
@@ -6459,7 +6459,7 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>reg2</t>
+          <t>reg2 Región de Antofagasta</t>
         </is>
       </c>
       <c r="B19">
@@ -6481,7 +6481,7 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>reg3</t>
+          <t>reg3 Región de Atacama</t>
         </is>
       </c>
       <c r="B20">
@@ -6503,7 +6503,7 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>reg4</t>
+          <t>reg4 Región de Coquimbo</t>
         </is>
       </c>
       <c r="B21">
@@ -6525,7 +6525,7 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>reg5</t>
+          <t>reg5 Región de Valparaíso</t>
         </is>
       </c>
       <c r="B22">
@@ -6547,7 +6547,7 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>reg6</t>
+          <t>reg6 Región del Libertador Gral. Bernardo O'Higgins</t>
         </is>
       </c>
       <c r="B23">
@@ -6569,7 +6569,7 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>reg7</t>
+          <t>reg7 Región del Maule</t>
         </is>
       </c>
       <c r="B24">
@@ -6591,7 +6591,7 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>reg8</t>
+          <t>reg8 Región del Biobío</t>
         </is>
       </c>
       <c r="B25">
@@ -6613,7 +6613,7 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>reg9</t>
+          <t>reg9 Región de La Araucanía</t>
         </is>
       </c>
       <c r="B26">
@@ -6635,7 +6635,7 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>reg10</t>
+          <t>reg10 Región de Los Lagos</t>
         </is>
       </c>
       <c r="B27">
@@ -6657,7 +6657,7 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>reg11</t>
+          <t>reg11 Región de Aysén del Gral. Carlos Ibáñez del Campo</t>
         </is>
       </c>
       <c r="B28">
@@ -6679,7 +6679,7 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>reg12</t>
+          <t>reg12 Región de Magallanes y de la Antártica Chilena</t>
         </is>
       </c>
       <c r="B29">
@@ -6701,7 +6701,7 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>reg13</t>
+          <t>reg13 Región Metropolitana de Santiago</t>
         </is>
       </c>
       <c r="B30">
@@ -6723,7 +6723,7 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>reg14</t>
+          <t>reg14 Región de Los Ríos</t>
         </is>
       </c>
       <c r="B31">
@@ -6745,7 +6745,7 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>reg15</t>
+          <t>reg15 Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="B32">
@@ -6767,7 +6767,7 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>reg16</t>
+          <t>reg16 Región de Ñuble</t>
         </is>
       </c>
       <c r="B33">
@@ -7032,7 +7032,7 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>qaut2</t>
+          <t>qautQ2</t>
         </is>
       </c>
       <c r="B11">
@@ -7054,7 +7054,7 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>qaut3</t>
+          <t>qautQ3</t>
         </is>
       </c>
       <c r="B12">
@@ -7076,7 +7076,7 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>qaut4</t>
+          <t>qautQ4</t>
         </is>
       </c>
       <c r="B13">
@@ -7098,7 +7098,7 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>qaut5</t>
+          <t>qautQ5 Highest</t>
         </is>
       </c>
       <c r="B14">
@@ -7164,7 +7164,7 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>reg2</t>
+          <t>reg2 Región de Antofagasta</t>
         </is>
       </c>
       <c r="B17">
@@ -7186,7 +7186,7 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>reg3</t>
+          <t>reg3 Región de Atacama</t>
         </is>
       </c>
       <c r="B18">
@@ -7208,7 +7208,7 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>reg4</t>
+          <t>reg4 Región de Coquimbo</t>
         </is>
       </c>
       <c r="B19">
@@ -7230,7 +7230,7 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>reg5</t>
+          <t>reg5 Región de Valparaíso</t>
         </is>
       </c>
       <c r="B20">
@@ -7252,7 +7252,7 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>reg6</t>
+          <t>reg6 Región del Libertador Gral. Bernardo O'Higgins</t>
         </is>
       </c>
       <c r="B21">
@@ -7274,7 +7274,7 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>reg7</t>
+          <t>reg7 Región del Maule</t>
         </is>
       </c>
       <c r="B22">
@@ -7296,7 +7296,7 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>reg8</t>
+          <t>reg8 Región del Biobío</t>
         </is>
       </c>
       <c r="B23">
@@ -7318,7 +7318,7 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>reg9</t>
+          <t>reg9 Región de La Araucanía</t>
         </is>
       </c>
       <c r="B24">
@@ -7340,7 +7340,7 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>reg10</t>
+          <t>reg10 Región de Los Lagos</t>
         </is>
       </c>
       <c r="B25">
@@ -7362,7 +7362,7 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>reg11</t>
+          <t>reg11 Región de Aysén del Gral. Carlos Ibáñez del Campo</t>
         </is>
       </c>
       <c r="B26">
@@ -7384,7 +7384,7 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>reg12</t>
+          <t>reg12 Región de Magallanes y de la Antártica Chilena</t>
         </is>
       </c>
       <c r="B27">
@@ -7406,7 +7406,7 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>reg13</t>
+          <t>reg13 Región Metropolitana de Santiago</t>
         </is>
       </c>
       <c r="B28">
@@ -7428,7 +7428,7 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>reg14</t>
+          <t>reg14 Región de Los Ríos</t>
         </is>
       </c>
       <c r="B29">
@@ -7450,7 +7450,7 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>reg15</t>
+          <t>reg15 Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="B30">
@@ -7472,7 +7472,7 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>reg16</t>
+          <t>reg16 Región de Ñuble</t>
         </is>
       </c>
       <c r="B31">

--- a/Output/Logit_models_weight.xlsx
+++ b/Output/Logit_models_weight.xlsx
@@ -374,7 +374,7 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>OR</t>
+          <t>estimate</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
@@ -384,12 +384,12 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>CI_low</t>
+          <t>conf.low</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>CI_high</t>
+          <t>conf.high</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
@@ -1079,7 +1079,7 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>OR</t>
+          <t>estimate</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
@@ -1089,12 +1089,12 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>CI_low</t>
+          <t>conf.low</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>CI_high</t>
+          <t>conf.high</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
@@ -1784,7 +1784,7 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>OR</t>
+          <t>estimate</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
@@ -1794,12 +1794,12 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>CI_low</t>
+          <t>conf.low</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>CI_high</t>
+          <t>conf.high</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
@@ -2489,7 +2489,7 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>OR</t>
+          <t>estimate</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
@@ -2499,12 +2499,12 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>CI_low</t>
+          <t>conf.low</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>CI_high</t>
+          <t>conf.high</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
@@ -3238,7 +3238,7 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>OR</t>
+          <t>estimate</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
@@ -3248,12 +3248,12 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>CI_low</t>
+          <t>conf.low</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>CI_high</t>
+          <t>conf.high</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
@@ -3943,7 +3943,7 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>OR</t>
+          <t>estimate</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
@@ -3953,12 +3953,12 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>CI_low</t>
+          <t>conf.low</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>CI_high</t>
+          <t>conf.high</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
@@ -4648,7 +4648,7 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>OR</t>
+          <t>estimate</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
@@ -4658,12 +4658,12 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>CI_low</t>
+          <t>conf.low</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>CI_high</t>
+          <t>conf.high</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
@@ -5353,7 +5353,7 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>OR</t>
+          <t>estimate</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
@@ -5363,12 +5363,12 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>CI_low</t>
+          <t>conf.low</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>CI_high</t>
+          <t>conf.high</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
@@ -6058,7 +6058,7 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>OR</t>
+          <t>estimate</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
@@ -6068,12 +6068,12 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>CI_low</t>
+          <t>conf.low</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>CI_high</t>
+          <t>conf.high</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
@@ -6807,7 +6807,7 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>OR</t>
+          <t>estimate</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
@@ -6817,12 +6817,12 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>CI_low</t>
+          <t>conf.low</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>CI_high</t>
+          <t>conf.high</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
